--- a/mhc-i/MT862858.xlsx
+++ b/mhc-i/MT862858.xlsx
@@ -1697,14 +1697,14 @@
   <dimension ref="A1:M975"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
